--- a/Data/Input/With_observations/DNS_1D/DNS_1D_nulta.xlsx
+++ b/Data/Input/With_observations/DNS_1D/DNS_1D_nulta.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="6180" yWindow="765" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="6180" yWindow="765" windowWidth="16095" windowHeight="9660" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Points" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="42">
   <si>
     <t>HzD</t>
   </si>
@@ -132,6 +132,15 @@
   </si>
   <si>
     <t>FIX_1D</t>
+  </si>
+  <si>
+    <t>e_cent_from</t>
+  </si>
+  <si>
+    <t>e_cent_to</t>
+  </si>
+  <si>
+    <t>e_focus</t>
   </si>
 </sst>
 </file>
@@ -518,7 +527,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
@@ -2229,10 +2238,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q145"/>
+  <dimension ref="A1:T145"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O1" sqref="O1:Q1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1:T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2240,7 +2249,7 @@
     <col min="17" max="17" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -2292,8 +2301,17 @@
       <c r="Q1" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>19</v>
       </c>
@@ -2312,7 +2330,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>21</v>
       </c>
@@ -2334,7 +2352,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>28</v>
       </c>
@@ -2353,7 +2371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>29</v>
       </c>
@@ -2372,7 +2390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>30</v>
       </c>
@@ -2391,7 +2409,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>31</v>
       </c>
@@ -2410,7 +2428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>32</v>
       </c>
@@ -2429,7 +2447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>33</v>
       </c>
@@ -2448,7 +2466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>34</v>
       </c>
@@ -2467,7 +2485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>35</v>
       </c>
@@ -2486,7 +2504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>2</v>
       </c>
@@ -2500,7 +2518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <v>1</v>
       </c>
@@ -2514,7 +2532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <v>51</v>
       </c>
@@ -2528,7 +2546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
         <v>50</v>
       </c>
@@ -2542,7 +2560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
         <v>49</v>
       </c>

--- a/Data/Input/With_observations/DNS_1D/DNS_1D_nulta.xlsx
+++ b/Data/Input/With_observations/DNS_1D/DNS_1D_nulta.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R_projects\Surveyer\Data\Input\With_observations\DNS_1D\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="6180" yWindow="765" windowWidth="16095" windowHeight="9660" activeTab="1"/>
   </bookViews>
@@ -15,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="43">
   <si>
     <t>HzD</t>
   </si>
@@ -142,11 +147,14 @@
   <si>
     <t>e_focus</t>
   </si>
+  <si>
+    <t>e_air</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -281,7 +289,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -316,7 +324,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2238,18 +2246,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T145"/>
+  <dimension ref="A1:U145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1:T1"/>
+      <selection activeCell="U6" sqref="U6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="17" max="17" width="9.140625" style="8"/>
+    <col min="17" max="17" width="5.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -2310,8 +2321,11 @@
       <c r="T1" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>19</v>
       </c>
@@ -2330,7 +2344,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>21</v>
       </c>
@@ -2352,7 +2366,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>28</v>
       </c>
@@ -2371,7 +2385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>29</v>
       </c>
@@ -2390,7 +2404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>30</v>
       </c>
@@ -2409,7 +2423,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>31</v>
       </c>
@@ -2428,7 +2442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>32</v>
       </c>
@@ -2447,7 +2461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>33</v>
       </c>
@@ -2466,7 +2480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>34</v>
       </c>
@@ -2485,7 +2499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>35</v>
       </c>
@@ -2504,7 +2518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>2</v>
       </c>
@@ -2518,7 +2532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <v>1</v>
       </c>
@@ -2532,7 +2546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <v>51</v>
       </c>
@@ -2546,7 +2560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
         <v>50</v>
       </c>
@@ -2560,7 +2574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
         <v>49</v>
       </c>
